--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.853403666666668</v>
+        <v>11.841719</v>
       </c>
       <c r="H2">
-        <v>20.560211</v>
+        <v>35.525157</v>
       </c>
       <c r="I2">
-        <v>0.1214693760944317</v>
+        <v>0.2120812592693727</v>
       </c>
       <c r="J2">
-        <v>0.1214693760944317</v>
+        <v>0.2120812592693727</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N2">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O2">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P2">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q2">
-        <v>177.0946235740967</v>
+        <v>240.2109553863376</v>
       </c>
       <c r="R2">
-        <v>1593.85161216687</v>
+        <v>2161.898598477039</v>
       </c>
       <c r="S2">
-        <v>0.03133568045581094</v>
+        <v>0.0670471322884242</v>
       </c>
       <c r="T2">
-        <v>0.03133568045581094</v>
+        <v>0.06704713228842421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.853403666666668</v>
+        <v>11.841719</v>
       </c>
       <c r="H3">
-        <v>20.560211</v>
+        <v>35.525157</v>
       </c>
       <c r="I3">
-        <v>0.1214693760944317</v>
+        <v>0.2120812592693727</v>
       </c>
       <c r="J3">
-        <v>0.1214693760944317</v>
+        <v>0.2120812592693727</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>44.512854</v>
       </c>
       <c r="O3">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P3">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q3">
-        <v>101.6881856057993</v>
+        <v>175.702902985342</v>
       </c>
       <c r="R3">
-        <v>915.1936704521941</v>
+        <v>1581.326126868078</v>
       </c>
       <c r="S3">
-        <v>0.01799302782865849</v>
+        <v>0.04904179229032953</v>
       </c>
       <c r="T3">
-        <v>0.01799302782865849</v>
+        <v>0.04904179229032955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.853403666666668</v>
+        <v>11.841719</v>
       </c>
       <c r="H4">
-        <v>20.560211</v>
+        <v>35.525157</v>
       </c>
       <c r="I4">
-        <v>0.1214693760944317</v>
+        <v>0.2120812592693727</v>
       </c>
       <c r="J4">
-        <v>0.1214693760944317</v>
+        <v>0.2120812592693727</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N4">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O4">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P4">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q4">
-        <v>66.45128272343091</v>
+        <v>171.4979164629213</v>
       </c>
       <c r="R4">
-        <v>598.0615445108781</v>
+        <v>1543.481248166292</v>
       </c>
       <c r="S4">
-        <v>0.01175809925380905</v>
+        <v>0.04786810607278654</v>
       </c>
       <c r="T4">
-        <v>0.01175809925380905</v>
+        <v>0.04786810607278656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.853403666666668</v>
+        <v>11.841719</v>
       </c>
       <c r="H5">
-        <v>20.560211</v>
+        <v>35.525157</v>
       </c>
       <c r="I5">
-        <v>0.1214693760944317</v>
+        <v>0.2120812592693727</v>
       </c>
       <c r="J5">
-        <v>0.1214693760944317</v>
+        <v>0.2120812592693727</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N5">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O5">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P5">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q5">
-        <v>104.6677348324331</v>
+        <v>44.81268431477434</v>
       </c>
       <c r="R5">
-        <v>942.009613491898</v>
+        <v>403.314158832969</v>
       </c>
       <c r="S5">
-        <v>0.01852023865292776</v>
+        <v>0.01250801391893117</v>
       </c>
       <c r="T5">
-        <v>0.01852023865292775</v>
+        <v>0.01250801391893118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.853403666666668</v>
+        <v>11.841719</v>
       </c>
       <c r="H6">
-        <v>20.560211</v>
+        <v>35.525157</v>
       </c>
       <c r="I6">
-        <v>0.1214693760944317</v>
+        <v>0.2120812592693727</v>
       </c>
       <c r="J6">
-        <v>0.1214693760944317</v>
+        <v>0.2120812592693727</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N6">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O6">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P6">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q6">
-        <v>36.56214554939179</v>
+        <v>47.96264077736934</v>
       </c>
       <c r="R6">
-        <v>329.059309944526</v>
+        <v>431.6637669963241</v>
       </c>
       <c r="S6">
-        <v>0.006469421186212514</v>
+        <v>0.01338722255998051</v>
       </c>
       <c r="T6">
-        <v>0.006469421186212513</v>
+        <v>0.01338722255998051</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.853403666666668</v>
+        <v>11.841719</v>
       </c>
       <c r="H7">
-        <v>20.560211</v>
+        <v>35.525157</v>
       </c>
       <c r="I7">
-        <v>0.1214693760944317</v>
+        <v>0.2120812592693727</v>
       </c>
       <c r="J7">
-        <v>0.1214693760944317</v>
+        <v>0.2120812592693727</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N7">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O7">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P7">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q7">
-        <v>200.0241818673973</v>
+        <v>79.64020617608766</v>
       </c>
       <c r="R7">
-        <v>1800.217636806575</v>
+        <v>716.7618555847889</v>
       </c>
       <c r="S7">
-        <v>0.03539290871701295</v>
+        <v>0.02222899213892068</v>
       </c>
       <c r="T7">
-        <v>0.03539290871701294</v>
+        <v>0.02222899213892069</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>32.623061</v>
       </c>
       <c r="I8">
-        <v>0.1927364882568854</v>
+        <v>0.1947560670344556</v>
       </c>
       <c r="J8">
-        <v>0.1927364882568854</v>
+        <v>0.1947560670344556</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N8">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O8">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P8">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q8">
-        <v>280.9975397445966</v>
+        <v>220.5878119113385</v>
       </c>
       <c r="R8">
-        <v>2528.97785770137</v>
+        <v>1985.290307202047</v>
       </c>
       <c r="S8">
-        <v>0.04972058968589515</v>
+        <v>0.06156996537750226</v>
       </c>
       <c r="T8">
-        <v>0.04972058968589516</v>
+        <v>0.06156996537750228</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>32.623061</v>
       </c>
       <c r="I9">
-        <v>0.1927364882568854</v>
+        <v>0.1947560670344556</v>
       </c>
       <c r="J9">
-        <v>0.1927364882568854</v>
+        <v>0.1947560670344556</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>44.512854</v>
       </c>
       <c r="O9">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P9">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q9">
         <v>161.3495057028993</v>
@@ -1013,10 +1013,10 @@
         <v>1452.145551326094</v>
       </c>
       <c r="S9">
-        <v>0.02854968971033534</v>
+        <v>0.04503550488001362</v>
       </c>
       <c r="T9">
-        <v>0.02854968971033534</v>
+        <v>0.04503550488001364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>32.623061</v>
       </c>
       <c r="I10">
-        <v>0.1927364882568854</v>
+        <v>0.1947560670344556</v>
       </c>
       <c r="J10">
-        <v>0.1927364882568854</v>
+        <v>0.1947560670344556</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N10">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O10">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P10">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q10">
-        <v>105.4388133377976</v>
+        <v>157.4880299654351</v>
       </c>
       <c r="R10">
-        <v>948.949320040178</v>
+        <v>1417.392269688916</v>
       </c>
       <c r="S10">
-        <v>0.01865667571218346</v>
+        <v>0.04395769860684883</v>
       </c>
       <c r="T10">
-        <v>0.01865667571218346</v>
+        <v>0.04395769860684884</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>32.623061</v>
       </c>
       <c r="I11">
-        <v>0.1927364882568854</v>
+        <v>0.1947560670344556</v>
       </c>
       <c r="J11">
-        <v>0.1927364882568854</v>
+        <v>0.1947560670344556</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N11">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O11">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P11">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q11">
-        <v>166.0771817064664</v>
+        <v>41.15187820210411</v>
       </c>
       <c r="R11">
-        <v>1494.694635358198</v>
+        <v>370.366903818937</v>
       </c>
       <c r="S11">
-        <v>0.02938621959225126</v>
+        <v>0.01148621809232654</v>
       </c>
       <c r="T11">
-        <v>0.02938621959225126</v>
+        <v>0.01148621809232654</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>32.623061</v>
       </c>
       <c r="I12">
-        <v>0.1927364882568854</v>
+        <v>0.1947560670344556</v>
       </c>
       <c r="J12">
-        <v>0.1927364882568854</v>
+        <v>0.1947560670344556</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N12">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O12">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P12">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q12">
-        <v>58.01346613362511</v>
+        <v>44.04451064920578</v>
       </c>
       <c r="R12">
-        <v>522.121195202626</v>
+        <v>396.4005958428521</v>
       </c>
       <c r="S12">
-        <v>0.01026508541145337</v>
+        <v>0.01229360304290338</v>
       </c>
       <c r="T12">
-        <v>0.01026508541145337</v>
+        <v>0.01229360304290338</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>32.623061</v>
       </c>
       <c r="I13">
-        <v>0.1927364882568854</v>
+        <v>0.1947560670344556</v>
       </c>
       <c r="J13">
-        <v>0.1927364882568854</v>
+        <v>0.1947560670344556</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N13">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O13">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P13">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q13">
-        <v>317.3800641703139</v>
+        <v>73.13429477975521</v>
       </c>
       <c r="R13">
-        <v>2856.420577532825</v>
+        <v>658.208653017797</v>
       </c>
       <c r="S13">
-        <v>0.05615822814476685</v>
+        <v>0.02041307703486096</v>
       </c>
       <c r="T13">
-        <v>0.05615822814476685</v>
+        <v>0.02041307703486096</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.652152</v>
+        <v>9.12515</v>
       </c>
       <c r="H14">
-        <v>34.956456</v>
+        <v>27.37545</v>
       </c>
       <c r="I14">
-        <v>0.2065221461390865</v>
+        <v>0.1634284095933974</v>
       </c>
       <c r="J14">
-        <v>0.2065221461390864</v>
+        <v>0.1634284095933974</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N14">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O14">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P14">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q14">
-        <v>301.09615201928</v>
+        <v>185.1049665630167</v>
       </c>
       <c r="R14">
-        <v>2709.86536817352</v>
+        <v>1665.94469906715</v>
       </c>
       <c r="S14">
-        <v>0.05327690144248105</v>
+        <v>0.05166607476513453</v>
       </c>
       <c r="T14">
-        <v>0.05327690144248105</v>
+        <v>0.05166607476513454</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.652152</v>
+        <v>9.12515</v>
       </c>
       <c r="H15">
-        <v>34.956456</v>
+        <v>27.37545</v>
       </c>
       <c r="I15">
-        <v>0.2065221461390865</v>
+        <v>0.1634284095933974</v>
       </c>
       <c r="J15">
-        <v>0.2065221461390864</v>
+        <v>0.1634284095933974</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>44.512854</v>
       </c>
       <c r="O15">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P15">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q15">
-        <v>172.890180253936</v>
+        <v>135.3954898927</v>
       </c>
       <c r="R15">
-        <v>1556.011622285424</v>
+        <v>1218.5594090343</v>
       </c>
       <c r="S15">
-        <v>0.03059173301282151</v>
+        <v>0.03779127936730306</v>
       </c>
       <c r="T15">
-        <v>0.0305917330128215</v>
+        <v>0.03779127936730307</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.652152</v>
+        <v>9.12515</v>
       </c>
       <c r="H16">
-        <v>34.956456</v>
+        <v>27.37545</v>
       </c>
       <c r="I16">
-        <v>0.2065221461390865</v>
+        <v>0.1634284095933974</v>
       </c>
       <c r="J16">
-        <v>0.2065221461390864</v>
+        <v>0.1634284095933974</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N16">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O16">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P16">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q16">
-        <v>112.9804232390987</v>
+        <v>132.1551552111333</v>
       </c>
       <c r="R16">
-        <v>1016.823809151888</v>
+        <v>1189.3963969002</v>
       </c>
       <c r="S16">
-        <v>0.01999111192046662</v>
+        <v>0.03688684456455082</v>
       </c>
       <c r="T16">
-        <v>0.01999111192046661</v>
+        <v>0.03688684456455082</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.652152</v>
+        <v>9.12515</v>
       </c>
       <c r="H17">
-        <v>34.956456</v>
+        <v>27.37545</v>
       </c>
       <c r="I17">
-        <v>0.2065221461390865</v>
+        <v>0.1634284095933974</v>
       </c>
       <c r="J17">
-        <v>0.2065221461390864</v>
+        <v>0.1634284095933974</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N17">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O17">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P17">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q17">
-        <v>177.9560077126453</v>
+        <v>34.53235685418333</v>
       </c>
       <c r="R17">
-        <v>1601.604069413808</v>
+        <v>310.79121168765</v>
       </c>
       <c r="S17">
-        <v>0.03148809647822039</v>
+        <v>0.009638592438507856</v>
       </c>
       <c r="T17">
-        <v>0.03148809647822039</v>
+        <v>0.009638592438507858</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.652152</v>
+        <v>9.12515</v>
       </c>
       <c r="H18">
-        <v>34.956456</v>
+        <v>27.37545</v>
       </c>
       <c r="I18">
-        <v>0.2065221461390865</v>
+        <v>0.1634284095933974</v>
       </c>
       <c r="J18">
-        <v>0.2065221461390864</v>
+        <v>0.1634284095933974</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N18">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O18">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P18">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q18">
-        <v>62.16293364707733</v>
+        <v>36.95969237993334</v>
       </c>
       <c r="R18">
-        <v>559.4664028236959</v>
+        <v>332.6372314194001</v>
       </c>
       <c r="S18">
-        <v>0.01099930526205716</v>
+        <v>0.01031610477695055</v>
       </c>
       <c r="T18">
-        <v>0.01099930526205716</v>
+        <v>0.01031610477695056</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.652152</v>
+        <v>9.12515</v>
       </c>
       <c r="H19">
-        <v>34.956456</v>
+        <v>27.37545</v>
       </c>
       <c r="I19">
-        <v>0.2065221461390865</v>
+        <v>0.1634284095933974</v>
       </c>
       <c r="J19">
-        <v>0.2065221461390864</v>
+        <v>0.1634284095933974</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N19">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O19">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P19">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q19">
-        <v>340.0809705884666</v>
+        <v>61.37021385051666</v>
       </c>
       <c r="R19">
-        <v>3060.728735296199</v>
+        <v>552.33192465465</v>
       </c>
       <c r="S19">
-        <v>0.06017499802303971</v>
+        <v>0.01712951368095055</v>
       </c>
       <c r="T19">
-        <v>0.0601749980230397</v>
+        <v>0.01712951368095056</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.901021666666668</v>
+        <v>4.344367666666667</v>
       </c>
       <c r="H20">
-        <v>17.703065</v>
+        <v>13.033103</v>
       </c>
       <c r="I20">
-        <v>0.104589406232707</v>
+        <v>0.07780618383832727</v>
       </c>
       <c r="J20">
-        <v>0.104589406232707</v>
+        <v>0.07780618383832727</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N20">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O20">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P20">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q20">
-        <v>152.4847012651167</v>
+        <v>88.12611646666456</v>
       </c>
       <c r="R20">
-        <v>1372.36231138605</v>
+        <v>793.135048199981</v>
       </c>
       <c r="S20">
-        <v>0.02698112329335777</v>
+        <v>0.02459756000429944</v>
       </c>
       <c r="T20">
-        <v>0.02698112329335777</v>
+        <v>0.02459756000429944</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.901021666666668</v>
+        <v>4.344367666666667</v>
       </c>
       <c r="H21">
-        <v>17.703065</v>
+        <v>13.033103</v>
       </c>
       <c r="I21">
-        <v>0.104589406232707</v>
+        <v>0.07780618383832727</v>
       </c>
       <c r="J21">
-        <v>0.104589406232707</v>
+        <v>0.07780618383832727</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>44.512854</v>
       </c>
       <c r="O21">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P21">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q21">
-        <v>87.55710529972335</v>
+        <v>64.46006788955133</v>
       </c>
       <c r="R21">
-        <v>788.01394769751</v>
+        <v>580.140611005962</v>
       </c>
       <c r="S21">
-        <v>0.01549262997337674</v>
+        <v>0.01799194667104415</v>
       </c>
       <c r="T21">
-        <v>0.01549262997337674</v>
+        <v>0.01799194667104416</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.901021666666668</v>
+        <v>4.344367666666667</v>
       </c>
       <c r="H22">
-        <v>17.703065</v>
+        <v>13.033103</v>
       </c>
       <c r="I22">
-        <v>0.104589406232707</v>
+        <v>0.07780618383832727</v>
       </c>
       <c r="J22">
-        <v>0.104589406232707</v>
+        <v>0.07780618383832727</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N22">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O22">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P22">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q22">
-        <v>57.21689224815224</v>
+        <v>62.91738582736311</v>
       </c>
       <c r="R22">
-        <v>514.9520302333701</v>
+        <v>566.256472446268</v>
       </c>
       <c r="S22">
-        <v>0.01012413711934343</v>
+        <v>0.01756135678335081</v>
       </c>
       <c r="T22">
-        <v>0.01012413711934343</v>
+        <v>0.01756135678335081</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.901021666666668</v>
+        <v>4.344367666666667</v>
       </c>
       <c r="H23">
-        <v>17.703065</v>
+        <v>13.033103</v>
       </c>
       <c r="I23">
-        <v>0.104589406232707</v>
+        <v>0.07780618383832727</v>
       </c>
       <c r="J23">
-        <v>0.104589406232707</v>
+        <v>0.07780618383832727</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N23">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O23">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P23">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q23">
-        <v>90.12260200740778</v>
+        <v>16.44041517905011</v>
       </c>
       <c r="R23">
-        <v>811.10341806667</v>
+        <v>147.963736611451</v>
       </c>
       <c r="S23">
-        <v>0.01594657704088214</v>
+        <v>0.004588811070725561</v>
       </c>
       <c r="T23">
-        <v>0.01594657704088214</v>
+        <v>0.004588811070725562</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.901021666666668</v>
+        <v>4.344367666666667</v>
       </c>
       <c r="H24">
-        <v>17.703065</v>
+        <v>13.033103</v>
       </c>
       <c r="I24">
-        <v>0.104589406232707</v>
+        <v>0.07780618383832727</v>
       </c>
       <c r="J24">
-        <v>0.104589406232707</v>
+        <v>0.07780618383832727</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N24">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O24">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P24">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q24">
-        <v>31.48129361125445</v>
+        <v>17.59603870022178</v>
       </c>
       <c r="R24">
-        <v>283.33164250129</v>
+        <v>158.364348301996</v>
       </c>
       <c r="S24">
-        <v>0.005570399242103947</v>
+        <v>0.004911366064002184</v>
       </c>
       <c r="T24">
-        <v>0.005570399242103946</v>
+        <v>0.004911366064002185</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.901021666666668</v>
+        <v>4.344367666666667</v>
       </c>
       <c r="H25">
-        <v>17.703065</v>
+        <v>13.033103</v>
       </c>
       <c r="I25">
-        <v>0.104589406232707</v>
+        <v>0.07780618383832727</v>
       </c>
       <c r="J25">
-        <v>0.104589406232707</v>
+        <v>0.07780618383832727</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N25">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O25">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P25">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q25">
-        <v>172.2278576406806</v>
+        <v>29.21757699858122</v>
       </c>
       <c r="R25">
-        <v>1550.050718766125</v>
+        <v>262.958192987231</v>
       </c>
       <c r="S25">
-        <v>0.03047453956364294</v>
+        <v>0.008155143244905114</v>
       </c>
       <c r="T25">
-        <v>0.03047453956364294</v>
+        <v>0.008155143244905114</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.793594</v>
+        <v>6.819673000000001</v>
       </c>
       <c r="H26">
-        <v>17.380782</v>
+        <v>20.459019</v>
       </c>
       <c r="I26">
-        <v>0.1026853637627225</v>
+        <v>0.1221380812739553</v>
       </c>
       <c r="J26">
-        <v>0.1026853637627225</v>
+        <v>0.1221380812739553</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N26">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O26">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P26">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q26">
-        <v>149.70872846166</v>
+        <v>138.3380374717904</v>
       </c>
       <c r="R26">
-        <v>1347.37855615494</v>
+        <v>1245.042337246113</v>
       </c>
       <c r="S26">
-        <v>0.02648993392257066</v>
+        <v>0.03861259651531967</v>
       </c>
       <c r="T26">
-        <v>0.02648993392257067</v>
+        <v>0.03861259651531968</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.793594</v>
+        <v>6.819673000000001</v>
       </c>
       <c r="H27">
-        <v>17.380782</v>
+        <v>20.459019</v>
       </c>
       <c r="I27">
-        <v>0.1026853637627225</v>
+        <v>0.1221380812739553</v>
       </c>
       <c r="J27">
-        <v>0.1026853637627225</v>
+        <v>0.1221380812739553</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>44.512854</v>
       </c>
       <c r="O27">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P27">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q27">
-        <v>85.96313461909199</v>
+        <v>101.187702858914</v>
       </c>
       <c r="R27">
-        <v>773.6682115718279</v>
+        <v>910.689325730226</v>
       </c>
       <c r="S27">
-        <v>0.01521058778092533</v>
+        <v>0.02824328011448072</v>
       </c>
       <c r="T27">
-        <v>0.01521058778092533</v>
+        <v>0.02824328011448073</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.793594</v>
+        <v>6.819673000000001</v>
       </c>
       <c r="H28">
-        <v>17.380782</v>
+        <v>20.459019</v>
       </c>
       <c r="I28">
-        <v>0.1026853637627225</v>
+        <v>0.1221380812739553</v>
       </c>
       <c r="J28">
-        <v>0.1026853637627225</v>
+        <v>0.1221380812739553</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N28">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O28">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P28">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q28">
-        <v>56.17526292100401</v>
+        <v>98.76604152306267</v>
       </c>
       <c r="R28">
-        <v>505.577366289036</v>
+        <v>888.894373707564</v>
       </c>
       <c r="S28">
-        <v>0.009939827945579826</v>
+        <v>0.02756735154294055</v>
       </c>
       <c r="T28">
-        <v>0.009939827945579826</v>
+        <v>0.02756735154294056</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.793594</v>
+        <v>6.819673000000001</v>
       </c>
       <c r="H29">
-        <v>17.380782</v>
+        <v>20.459019</v>
       </c>
       <c r="I29">
-        <v>0.1026853637627225</v>
+        <v>0.1221380812739553</v>
       </c>
       <c r="J29">
-        <v>0.1026853637627225</v>
+        <v>0.1221380812739553</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N29">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O29">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P29">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q29">
-        <v>88.48192664736398</v>
+        <v>25.80772717871367</v>
       </c>
       <c r="R29">
-        <v>796.3373398262759</v>
+        <v>232.269544608423</v>
       </c>
       <c r="S29">
-        <v>0.01565627077535882</v>
+        <v>0.007203393764584274</v>
       </c>
       <c r="T29">
-        <v>0.01565627077535882</v>
+        <v>0.007203393764584276</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.793594</v>
+        <v>6.819673000000001</v>
       </c>
       <c r="H30">
-        <v>17.380782</v>
+        <v>20.459019</v>
       </c>
       <c r="I30">
-        <v>0.1026853637627225</v>
+        <v>0.1221380812739553</v>
       </c>
       <c r="J30">
-        <v>0.1026853637627225</v>
+        <v>0.1221380812739553</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N30">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O30">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P30">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q30">
-        <v>30.908178969868</v>
+        <v>27.62179429507868</v>
       </c>
       <c r="R30">
-        <v>278.173610728812</v>
+        <v>248.596148655708</v>
       </c>
       <c r="S30">
-        <v>0.005468990532428926</v>
+        <v>0.007709732027697157</v>
       </c>
       <c r="T30">
-        <v>0.005468990532428926</v>
+        <v>0.007709732027697159</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.793594</v>
+        <v>6.819673000000001</v>
       </c>
       <c r="H31">
-        <v>17.380782</v>
+        <v>20.459019</v>
       </c>
       <c r="I31">
-        <v>0.1026853637627225</v>
+        <v>0.1221380812739553</v>
       </c>
       <c r="J31">
-        <v>0.1026853637627225</v>
+        <v>0.1221380812739553</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N31">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O31">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P31">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q31">
-        <v>169.09246212335</v>
+        <v>45.86497651004034</v>
       </c>
       <c r="R31">
-        <v>1521.83215911015</v>
+        <v>412.784788590363</v>
       </c>
       <c r="S31">
-        <v>0.02991975280585893</v>
+        <v>0.01280172730893291</v>
       </c>
       <c r="T31">
-        <v>0.02991975280585893</v>
+        <v>0.01280172730893291</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.34631033333334</v>
+        <v>12.8305</v>
       </c>
       <c r="H32">
-        <v>46.03893100000001</v>
+        <v>38.4915</v>
       </c>
       <c r="I32">
-        <v>0.271997219514167</v>
+        <v>0.2297899989904917</v>
       </c>
       <c r="J32">
-        <v>0.271997219514167</v>
+        <v>0.2297899989904917</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N32">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O32">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P32">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q32">
-        <v>396.5546440743634</v>
+        <v>260.2685187078333</v>
       </c>
       <c r="R32">
-        <v>3568.99179666927</v>
+        <v>2342.4166683705</v>
       </c>
       <c r="S32">
-        <v>0.07016762767381757</v>
+        <v>0.07264555347299043</v>
       </c>
       <c r="T32">
-        <v>0.07016762767381758</v>
+        <v>0.07264555347299044</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.34631033333334</v>
+        <v>12.8305</v>
       </c>
       <c r="H33">
-        <v>46.03893100000001</v>
+        <v>38.4915</v>
       </c>
       <c r="I33">
-        <v>0.271997219514167</v>
+        <v>0.2297899989904917</v>
       </c>
       <c r="J33">
-        <v>0.271997219514167</v>
+        <v>0.2297899989904917</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>44.512854</v>
       </c>
       <c r="O33">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P33">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q33">
-        <v>227.7026904354527</v>
+        <v>190.374057749</v>
       </c>
       <c r="R33">
-        <v>2049.324213919074</v>
+        <v>1713.366519741</v>
       </c>
       <c r="S33">
-        <v>0.04029043119667829</v>
+        <v>0.05313677144180445</v>
       </c>
       <c r="T33">
-        <v>0.04029043119667829</v>
+        <v>0.05313677144180446</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.34631033333334</v>
+        <v>12.8305</v>
       </c>
       <c r="H34">
-        <v>46.03893100000001</v>
+        <v>38.4915</v>
       </c>
       <c r="I34">
-        <v>0.271997219514167</v>
+        <v>0.2297899989904917</v>
       </c>
       <c r="J34">
-        <v>0.271997219514167</v>
+        <v>0.2297899989904917</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N34">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O34">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P34">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q34">
-        <v>148.7993493921598</v>
+        <v>185.8179557526667</v>
       </c>
       <c r="R34">
-        <v>1339.194144529438</v>
+        <v>1672.361601774</v>
       </c>
       <c r="S34">
-        <v>0.02632902552591831</v>
+        <v>0.05186508267650058</v>
       </c>
       <c r="T34">
-        <v>0.02632902552591831</v>
+        <v>0.05186508267650059</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.34631033333334</v>
+        <v>12.8305</v>
       </c>
       <c r="H35">
-        <v>46.03893100000001</v>
+        <v>38.4915</v>
       </c>
       <c r="I35">
-        <v>0.271997219514167</v>
+        <v>0.2297899989904917</v>
       </c>
       <c r="J35">
-        <v>0.271997219514167</v>
+        <v>0.2297899989904917</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N35">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O35">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P35">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q35">
-        <v>234.3745704689842</v>
+        <v>48.55453385616667</v>
       </c>
       <c r="R35">
-        <v>2109.371134220858</v>
+        <v>436.9908047055001</v>
       </c>
       <c r="S35">
-        <v>0.04147097466293872</v>
+        <v>0.01355243040194134</v>
       </c>
       <c r="T35">
-        <v>0.04147097466293872</v>
+        <v>0.01355243040194135</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.34631033333334</v>
+        <v>12.8305</v>
       </c>
       <c r="H36">
-        <v>46.03893100000001</v>
+        <v>38.4915</v>
       </c>
       <c r="I36">
-        <v>0.271997219514167</v>
+        <v>0.2297899989904917</v>
       </c>
       <c r="J36">
-        <v>0.271997219514167</v>
+        <v>0.2297899989904917</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N36">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O36">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P36">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q36">
-        <v>81.87085707244957</v>
+        <v>51.96751100866668</v>
       </c>
       <c r="R36">
-        <v>736.8377136520461</v>
+        <v>467.707599078</v>
       </c>
       <c r="S36">
-        <v>0.01448648730316902</v>
+        <v>0.01450505277619152</v>
       </c>
       <c r="T36">
-        <v>0.01448648730316902</v>
+        <v>0.01450505277619153</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.34631033333334</v>
+        <v>12.8305</v>
       </c>
       <c r="H37">
-        <v>46.03893100000001</v>
+        <v>38.4915</v>
       </c>
       <c r="I37">
-        <v>0.271997219514167</v>
+        <v>0.2297899989904917</v>
       </c>
       <c r="J37">
-        <v>0.271997219514167</v>
+        <v>0.2297899989904917</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N37">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O37">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P37">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q37">
-        <v>447.8990759056195</v>
+        <v>86.29014633283333</v>
       </c>
       <c r="R37">
-        <v>4031.091683150575</v>
+        <v>776.6113169955</v>
       </c>
       <c r="S37">
-        <v>0.07925267315164507</v>
+        <v>0.02408510822106333</v>
       </c>
       <c r="T37">
-        <v>0.07925267315164507</v>
+        <v>0.02408510822106334</v>
       </c>
     </row>
   </sheetData>
